--- a/data/analytics_planing_result_3.xlsx
+++ b/data/analytics_planing_result_3.xlsx
@@ -82,7 +82,7 @@
     <t>total_cost</t>
   </si>
   <si>
-    <t>6050.45</t>
+    <t>4979.93</t>
   </si>
   <si>
     <t>total_reward</t>
@@ -103,7 +103,7 @@
     <t>weight_utilization</t>
   </si>
   <si>
-    <t>2.03</t>
+    <t>0.68</t>
   </si>
   <si>
     <t>volume_utilization</t>
@@ -139,16 +139,16 @@
     <t>avg_mass_loading</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>9.00</t>
   </si>
   <si>
+    <t>6.10</t>
+  </si>
+  <si>
     <t>avg_volume_loading</t>
   </si>
   <si>
-    <t>2.10</t>
+    <t>4.10</t>
   </si>
   <si>
     <t>location_key</t>
@@ -280,31 +280,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>7h 17m</t>
-  </si>
-  <si>
-    <t>5h 37m</t>
-  </si>
-  <si>
-    <t>261.35</t>
-  </si>
-  <si>
-    <t>46.53</t>
-  </si>
-  <si>
-    <t>https://www.google.ru/maps/dir//55.837956,37.48106/55.705007,37.501656/55.687854,37.482825/55.837956,37.48106/55.793021,37.806653/55.812886,37.794457/56.012436,37.821238/55.915094,37.764474/55.922979,37.783779/55.923932,37.755805/55.90288,37.71523/55.892748,37.726924/56.040355,37.228898/55.837956,37.48106/55.69591,37.51251/55.837956,37.48106</t>
-  </si>
-  <si>
-    <t>1.78</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>5h 6m</t>
+  </si>
+  <si>
+    <t>3h 26m</t>
+  </si>
+  <si>
+    <t>167.39</t>
+  </si>
+  <si>
+    <t>48.76</t>
+  </si>
+  <si>
+    <t>https://www.google.ru/maps/dir//55.837956,37.48106/55.69591,37.51251/55.687854,37.482825/55.705007,37.501656/55.793021,37.806653/55.812886,37.794457/56.012436,37.821238/55.915094,37.764474/55.922979,37.783779/55.923932,37.755805/55.90288,37.71523/55.892748,37.726924/56.040355,37.228898</t>
+  </si>
+  <si>
+    <t>2.55</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>total_start_to_orders_mileage</t>
-  </si>
-  <si>
-    <t>21.53</t>
   </si>
 </sst>
 </file>
@@ -442,25 +442,25 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>261345.0</v>
+        <v>167393.0</v>
       </c>
       <c r="G2" t="n">
         <v>100.0</v>
       </c>
       <c r="H2" t="n">
-        <v>337.0</v>
+        <v>206.0</v>
       </c>
       <c r="I2" t="n">
-        <v>337.0</v>
+        <v>206.0</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>775.0</v>
+        <v>812.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.8571428060531616</v>
+        <v>2.5999999046325684</v>
       </c>
       <c r="M2" t="n">
         <v>13.0</v>
@@ -646,37 +646,37 @@
         <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P2" t="n">
         <v>13.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +702,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s" s="13">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="13">
         <v>13</v>
@@ -742,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s" s="14">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="14">
         <v>13</v>
@@ -753,10 +753,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +829,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>261345.0</v>
+        <v>167393.0</v>
       </c>
     </row>
     <row r="8">
@@ -837,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>337.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="9">
@@ -938,10 +938,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>261345.0</v>
+        <v>167393.0</v>
       </c>
       <c r="C2" t="n">
-        <v>261345.0</v>
+        <v>167393.0</v>
       </c>
     </row>
   </sheetData>
@@ -978,10 +978,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>261345.0</v>
+        <v>167393.0</v>
       </c>
       <c r="C2" t="n">
-        <v>261345.0</v>
+        <v>167393.0</v>
       </c>
     </row>
   </sheetData>
@@ -1036,13 +1036,13 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1097,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1158,7 +1158,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1219,7 +1219,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
